--- a/IA_MARKS.xlsx
+++ b/IA_MARKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Folder\1. CMRIT\2nd Year\4th Sem\Python Lab\IAT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2CBC68-C82B-4C43-9B5F-65A624CD43ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4FCCB-811A-489B-BA81-6F6CF40C6F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="book1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
